--- a/biology/Botanique/Belle_Poitevine/Belle_Poitevine.xlsx
+++ b/biology/Botanique/Belle_Poitevine/Belle_Poitevine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Belle Poitevine' est un cultivar de rosier introduit en 1894 par la maison Bruant à Poitiers. Il est toujours fort prisé aujourd'hui pour ses grandes fleurs légèrement parfumées et son buisson vigoureux.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Belle Poitevine' montre d'abord des boutons pointus qui s'ouvrent ensuite en grandes fleurs semi-doubles presque plates de couleur rose magenta clair[1] et aux pétales (9-16 pétales) chiffonnés[2], s'ouvrant sur de grandes étamines dorées. La floraison a lieu tout l'été avec une petite remontée à la fin de l'automne, laissant place à des cynorrhodons orange fort décoratifs[3]. 
-Ce cultivar est parfait pour former des haies, car son buisson s'élève de 150 cm à 200 cm[4], pour une envergure de 150 cm[5]. Il ne nécessite pas de taille. Il résiste à des températures hivernales de -15° à -20°[6]. Il préfère une exposition bien ensoleillée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Belle Poitevine' montre d'abord des boutons pointus qui s'ouvrent ensuite en grandes fleurs semi-doubles presque plates de couleur rose magenta clair et aux pétales (9-16 pétales) chiffonnés, s'ouvrant sur de grandes étamines dorées. La floraison a lieu tout l'été avec une petite remontée à la fin de l'automne, laissant place à des cynorrhodons orange fort décoratifs. 
+Ce cultivar est parfait pour former des haies, car son buisson s'élève de 150 cm à 200 cm, pour une envergure de 150 cm. Il ne nécessite pas de taille. Il résiste à des températures hivernales de -15° à -20°. Il préfère une exposition bien ensoleillée.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rose award de la Santa Clara County Rose Society Show (États-Unis), 1999</t>
         </is>
